--- a/src/results/longmethod/tca.xlsx
+++ b/src/results/longmethod/tca.xlsx
@@ -52,10 +52,10 @@
     <t>aoi</t>
   </si>
   <si>
-    <t>Mean</t>
-  </si>
-  <si>
-    <t>Std</t>
+    <t>Median</t>
+  </si>
+  <si>
+    <t>IQR</t>
   </si>
 </sst>
 </file>
@@ -458,93 +458,93 @@
     </row>
     <row r="2" spans="1:15">
       <c r="A2" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B2" t="n">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="D2" t="n">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="E2" t="n">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>50</v>
+      </c>
+      <c r="J2" t="n">
+        <v>50</v>
+      </c>
+      <c r="K2" t="n">
+        <v>63</v>
+      </c>
+      <c r="L2" t="n">
+        <v>52</v>
+      </c>
+      <c r="M2" t="n">
         <v>57</v>
       </c>
-      <c r="G2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H2" t="n">
-        <v>40</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" t="n">
-        <v>60</v>
-      </c>
-      <c r="L2" t="n">
-        <v>81</v>
-      </c>
-      <c r="M2" t="n">
-        <v>40</v>
-      </c>
       <c r="N2" t="n">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="O2" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" s="1" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="B3" t="n">
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>47</v>
       </c>
       <c r="E3" t="n">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="F3" t="n">
-        <v>52</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="H3" t="n">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="I3" t="n">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="J3" t="n">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="L3" t="n">
-        <v>66</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>63</v>
+        <v>42</v>
       </c>
       <c r="N3" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="O3" t="n">
         <v>24</v>
@@ -552,19 +552,19 @@
     </row>
     <row r="4" spans="1:15">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B4" t="n">
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D4" t="n">
         <v>40</v>
       </c>
       <c r="E4" t="n">
-        <v>69</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -573,122 +573,122 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>81</v>
       </c>
       <c r="I4" t="n">
-        <v>61</v>
+        <v>79</v>
       </c>
       <c r="J4" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>66</v>
+      </c>
+      <c r="M4" t="n">
         <v>63</v>
       </c>
-      <c r="L4" t="n">
-        <v>52</v>
-      </c>
-      <c r="M4" t="n">
-        <v>57</v>
-      </c>
       <c r="N4" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O4" t="n">
-        <v>24</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B5" t="n">
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="D5" t="n">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>69</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="H5" t="n">
-        <v>81</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="L5" t="n">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="M5" t="n">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="N5" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="O5" t="n">
-        <v>32</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" s="1" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>53</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="D6" t="n">
-        <v>47</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>43</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="H6" t="n">
-        <v>57</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>66</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="L6" t="n">
-        <v>66</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>42</v>
+        <v>70</v>
       </c>
       <c r="N6" t="n">
         <v>38</v>
       </c>
       <c r="O6" t="n">
-        <v>22</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -696,7 +696,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>38</v>
@@ -711,19 +711,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>35</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -732,27 +732,27 @@
         <v>38</v>
       </c>
       <c r="N7" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="O7" t="n">
-        <v>25</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:15">
       <c r="A8" s="1" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B8" t="n">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="D8" t="n">
-        <v>52</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -764,10 +764,10 @@
         <v>64</v>
       </c>
       <c r="I8" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="J8" t="n">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -776,13 +776,13 @@
         <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="N8" t="n">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="O8" t="n">
-        <v>28</v>
+        <v>52</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -805,7 +805,7 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>73</v>
+        <v>51</v>
       </c>
       <c r="H9" t="n">
         <v>40</v>
@@ -826,10 +826,10 @@
         <v>22</v>
       </c>
       <c r="N9" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="O9" t="n">
-        <v>22</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -837,16 +837,16 @@
         <v>5</v>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>84</v>
       </c>
       <c r="C10" t="n">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="D10" t="n">
-        <v>52</v>
+        <v>81</v>
       </c>
       <c r="E10" t="n">
-        <v>48</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -873,10 +873,10 @@
         <v>28</v>
       </c>
       <c r="N10" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="O10" t="n">
-        <v>22</v>
+        <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -896,7 +896,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>91</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -905,7 +905,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -920,21 +920,21 @@
         <v>28</v>
       </c>
       <c r="N11" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:15">
       <c r="A12" s="1" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B12" t="n">
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
@@ -949,13 +949,13 @@
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>64</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -964,13 +964,13 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>12</v>
+        <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:15">
